--- a/NewProject/作成資料/機能・命名一覧.xlsx
+++ b/NewProject/作成資料/機能・命名一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koufu\OneDrive\デスクトップ\【Remake】DoA\作成資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koufu\OneDrive\デスクトップ\【Remake】DoA\NewProject\作成資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ECD143-45EA-45FD-B5FE-C4D955A18893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF49E0E-03EC-43A1-A573-EC9F786D455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="178">
   <si>
     <t>DEAD OR ALIVE-リメイク版-</t>
     <rPh sb="18" eb="19">
@@ -607,16 +607,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>処理内容は主に描画・座標更新時処理・フラグ初期化。</t>
-    <rPh sb="0" eb="4">
-      <t>ショリナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示内容の中身のパターン</t>
     <rPh sb="5" eb="7">
       <t>ナカミ</t>
@@ -1269,13 +1259,6 @@
   </si>
   <si>
     <t>Const</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【追加】Staticなやつらをしまいまくる。</t>
-    <rPh sb="1" eb="3">
-      <t>ツイカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1380,15 +1363,83 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>座標とかの処理をシンプルにするために作った。</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像情報クラス</t>
+  </si>
+  <si>
+    <t>ImageLocations</t>
+  </si>
+  <si>
+    <t>画像表示頑張るぞい☆のために作った。</t>
+    <rPh sb="0" eb="4">
+      <t>ガゾウヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガンバ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>【追加】</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Const・ReadOnlyなやつらをしまいまくる。</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理内容は主に描画・座標更新時処理・フラグ初期化。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="General&quot;．&quot;"/>
+    <numFmt numFmtId="176" formatCode="General&quot;．&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1429,6 +1480,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
@@ -1570,7 +1630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1584,7 +1644,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1617,9 +1677,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1909,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.1" customHeight="1"/>
@@ -2184,10 +2241,10 @@
         <v>59</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -2199,10 +2256,10 @@
         <v>53</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -2217,7 +2274,7 @@
         <v>90</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="8"/>
     </row>
@@ -2232,7 +2289,7 @@
         <v>88</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" s="8"/>
     </row>
@@ -2244,10 +2301,10 @@
         <v>61</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="G26" s="8"/>
     </row>
@@ -2262,10 +2319,10 @@
         <v>90</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="3:7" ht="32.1" customHeight="1">
@@ -2279,7 +2336,7 @@
         <v>90</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="8"/>
     </row>
@@ -2294,7 +2351,7 @@
         <v>90</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="8"/>
     </row>
@@ -2309,7 +2366,7 @@
         <v>90</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="8"/>
     </row>
@@ -2324,7 +2381,7 @@
         <v>90</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="8"/>
     </row>
@@ -2339,7 +2396,7 @@
         <v>90</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32" s="8"/>
     </row>
@@ -2354,7 +2411,7 @@
         <v>90</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="8"/>
     </row>
@@ -2369,7 +2426,7 @@
         <v>90</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="8"/>
     </row>
@@ -2384,7 +2441,7 @@
         <v>90</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G35" s="8"/>
     </row>
@@ -2399,7 +2456,7 @@
         <v>90</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" s="8"/>
     </row>
@@ -2414,7 +2471,7 @@
         <v>90</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G37" s="8"/>
     </row>
@@ -2429,7 +2486,7 @@
         <v>90</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G38" s="8"/>
     </row>
@@ -2444,7 +2501,7 @@
         <v>90</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G39" s="8"/>
     </row>
@@ -2459,7 +2516,7 @@
         <v>90</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G40" s="8"/>
     </row>
@@ -2474,7 +2531,7 @@
         <v>90</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G41" s="8"/>
     </row>
@@ -2489,7 +2546,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G42" s="8"/>
     </row>
@@ -2504,7 +2561,7 @@
         <v>90</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G43" s="8"/>
     </row>
@@ -2519,7 +2576,7 @@
         <v>90</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G44" s="8"/>
     </row>
@@ -2534,7 +2591,7 @@
         <v>90</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G45" s="8"/>
     </row>
@@ -2549,7 +2606,7 @@
         <v>90</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G46" s="8"/>
     </row>
@@ -2564,7 +2621,7 @@
         <v>90</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G47" s="8"/>
     </row>
@@ -2579,7 +2636,7 @@
         <v>90</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48" s="8"/>
     </row>
@@ -2594,7 +2651,7 @@
         <v>90</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G49" s="8"/>
     </row>
@@ -2609,7 +2666,7 @@
         <v>90</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="8"/>
     </row>
@@ -2618,74 +2675,74 @@
         <v>43</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="32.1" customHeight="1">
       <c r="D53" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="32.1" customHeight="1">
       <c r="E54" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="32.1" customHeight="1">
       <c r="D55" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
     </row>
     <row r="56" spans="1:7" ht="32.1" customHeight="1">
       <c r="D56" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>152</v>
-      </c>
       <c r="F56" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="32.1" customHeight="1">
       <c r="D57" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>154</v>
+        <v>103</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="32.1" customHeight="1">
       <c r="D58" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F58" s="6" t="s">
+    </row>
+    <row r="59" spans="1:7" ht="32.1" customHeight="1">
+      <c r="D59" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="32.1" customHeight="1">
-      <c r="D59" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>162</v>
+      <c r="F59" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="32.1" customHeight="1">
@@ -2696,12 +2753,12 @@
         <v>3</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="32.1" customHeight="1">
       <c r="C62" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="32.1" customHeight="1">
@@ -2709,10 +2766,27 @@
         <v>45360.073611111111</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A64" s="3">
+        <v>45361.477083333331</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2770,19 +2844,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.75" customHeight="1">
@@ -2790,19 +2864,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" customHeight="1">
@@ -2813,16 +2887,16 @@
         <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" customHeight="1">
@@ -2830,19 +2904,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" customHeight="1">
@@ -2850,19 +2924,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" customHeight="1">
@@ -3066,7 +3140,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3127,13 +3201,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>24</v>
@@ -3145,13 +3219,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>24</v>

--- a/NewProject/作成資料/機能・命名一覧.xlsx
+++ b/NewProject/作成資料/機能・命名一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koufu\OneDrive\デスクトップ\【Remake】DoA\NewProject\作成資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF49E0E-03EC-43A1-A573-EC9F786D455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BBAA06-4301-46F1-A88C-20C9A29485DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="179">
   <si>
     <t>DEAD OR ALIVE-リメイク版-</t>
     <rPh sb="18" eb="19">
@@ -1429,6 +1429,49 @@
   </si>
   <si>
     <t>処理内容は主に描画・座標更新時処理・フラグ初期化。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標と画像表示一生うまくいかないと思ったら、条件式の＜と＞を間違える致命的なミスを発見。お前初心者か？？？画像表示は「\\」と書くべきところを「\」にしてました。お前初（</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ガゾウヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ジョウケンシキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>チメイテキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>マエショシンシャ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>ガゾウヒョウジ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ハツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1966,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.1" customHeight="1"/>
@@ -2787,6 +2830,14 @@
       </c>
       <c r="F64" s="4" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="32.1" customHeight="1">
+      <c r="A66" s="3">
+        <v>45361.506944444445</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/NewProject/作成資料/機能・命名一覧.xlsx
+++ b/NewProject/作成資料/機能・命名一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koufu\OneDrive\デスクトップ\【Remake】DoA\NewProject\作成資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BBAA06-4301-46F1-A88C-20C9A29485DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8518E5C5-487A-466F-9F8A-12B50458C6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業記録" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="196">
   <si>
     <t>DEAD OR ALIVE-リメイク版-</t>
     <rPh sb="18" eb="19">
@@ -1471,6 +1471,241 @@
     </rPh>
     <rPh sb="83" eb="84">
       <t>ハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示の構想が沸いたので、作成していく。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウソウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Mainから画面表示クラス（親玉）を呼び出して使う。</t>
+    <rPh sb="7" eb="11">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オヤダマ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面表示クラスでは以下の要素を実装する。</t>
+    <rPh sb="1" eb="5">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子クラスのイベント（画面表示、イベント分岐、フラグ管理）をデリゲードで呼び出す。→フラグ管理は親玉でもいいかも</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>オヤダマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示のバターンを作ってまとめて表示ができる。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼び出す子クラスを変更する処理。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示管理クラス</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ManagementDisplay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面クラスの基底クラス</t>
+  </si>
+  <si>
+    <t>DisplayBase</t>
+  </si>
+  <si>
+    <t>画面名のenum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DisplayName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleDisplay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>画面に画像を表示　座標で条件分岐　表示画像を変更　まで、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>できるようになった</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ジョウケンブンキ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ヒョウジガゾウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もうこの開発も終わりが近いな……。</t>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正直自信作だから処理シーケンストレースしてほへってほしい。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジシンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2009,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.1" customHeight="1"/>
@@ -2832,12 +3067,96 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="32.1" customHeight="1">
+    <row r="66" spans="1:5" ht="32.1" customHeight="1">
       <c r="A66" s="3">
         <v>45361.506944444445</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="32.1" customHeight="1">
+      <c r="A68" s="3">
+        <v>45361.520138888889</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="32.1" customHeight="1">
+      <c r="C69" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="32.1" customHeight="1">
+      <c r="C70" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="32.1" customHeight="1">
+      <c r="D71" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="32.1" customHeight="1">
+      <c r="D72" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="32.1" customHeight="1">
+      <c r="D73" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="32.1" customHeight="1">
+      <c r="A75" s="3">
+        <v>45361.98333333333</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="32.1" customHeight="1">
+      <c r="C76" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="32.1" customHeight="1">
+      <c r="C77" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="32.1" customHeight="1">
+      <c r="C78" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="32.1" customHeight="1">
+      <c r="C80" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" ht="32.1" customHeight="1">
+      <c r="C81" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" ht="32.1" customHeight="1">
+      <c r="C82" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +3171,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3191,7 +3510,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/NewProject/作成資料/機能・命名一覧.xlsx
+++ b/NewProject/作成資料/機能・命名一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koufu\OneDrive\デスクトップ\【Remake】DoA\NewProject\作成資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8518E5C5-487A-466F-9F8A-12B50458C6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A21664F-B0F2-42FC-A83D-4AE6A2E900C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業記録" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="201">
   <si>
     <t>DEAD OR ALIVE-リメイク版-</t>
     <rPh sb="18" eb="19">
@@ -1706,6 +1706,44 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルを完成させよう。</t>
+    <rPh sb="5" eb="7">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いろいろ画像取り込んで定数とかいっぱいつくったぞ。</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleDisplay.cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう動くよ！！やったぜ！</t>
+    <rPh sb="2" eb="3">
+      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2244,11 +2282,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.1" customHeight="1"/>
   <cols>
@@ -3149,14 +3185,43 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="3:3" ht="32.1" customHeight="1">
+    <row r="81" spans="1:5" ht="32.1" customHeight="1">
       <c r="C81" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="3:3" ht="32.1" customHeight="1">
+    <row r="82" spans="1:5" ht="32.1" customHeight="1">
       <c r="C82" s="4" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="32.1" customHeight="1">
+      <c r="A84" s="3">
+        <v>45362.990277777775</v>
+      </c>
+      <c r="B84" s="5">
+        <v>3</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="32.1" customHeight="1">
+      <c r="C85" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="32.1" customHeight="1">
+      <c r="C86" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="32.1" customHeight="1">
+      <c r="C88" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
